--- a/TestProject/src/test/resources/Toyota.xlsx
+++ b/TestProject/src/test/resources/Toyota.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="267" yWindow="53" windowWidth="28227" windowHeight="14360"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CarDetails" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -83,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -125,13 +125,41 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
